--- a/doc/实验数据.xlsx
+++ b/doc/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,7 +106,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +148,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -148,24 +172,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,15 +188,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,18 +233,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,37 +246,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -269,181 +262,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,63 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,153 +496,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1358,7 +1351,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1458,7 +1451,6 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7"/>
       <c r="C7">
         <v>2566</v>
       </c>
@@ -1476,7 +1468,6 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8"/>
       <c r="C8">
         <v>78243</v>
       </c>
@@ -1524,7 +1515,6 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11"/>
       <c r="C11">
         <v>17922</v>
       </c>
@@ -1542,7 +1532,6 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12"/>
       <c r="C12">
         <v>13725654</v>
       </c>
@@ -1603,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/doc/实验数据.xlsx
+++ b/doc/实验数据.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>k=2</t>
   </si>
@@ -75,9 +78,6 @@
     <t>k=4</t>
   </si>
   <si>
-    <t>炸了</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -90,8 +90,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -112,7 +112,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +125,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,17 +179,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,8 +201,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,37 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -217,8 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,22 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,31 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +280,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +352,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,49 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,49 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,16 +457,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,41 +482,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +504,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -549,7 +523,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,130 +576,130 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,6 +772,4305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>anti</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"point-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>point-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>679000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"unit-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1578361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="592966664"/>
+        <c:axId val="592973552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="592966664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.232694663167104"/>
+              <c:y val="0.689814814814815"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592973552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592973552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592966664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>anti</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"point-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>point-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7495227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12994720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3073420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"unit-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14810862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16038475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5300289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="585163264"/>
+        <c:axId val="585163592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="585163264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.232694663167104"/>
+              <c:y val="0.685185185185185"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585163592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585163592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585163264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>corr</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"point-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>point-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"unit-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>479645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="587344176"/>
+        <c:axId val="587339584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="587344176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.227139107611549"/>
+              <c:y val="0.675925925925926"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587339584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587339584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587344176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>inde</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"point-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>point-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>679000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"unit-wise"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit-wise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1578361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="592966664"/>
+        <c:axId val="592973552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="592966664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>维度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.232694663167104"/>
+              <c:y val="0.689814814814815"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592973552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592973552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592966664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15535275" y="9525"/>
+        <a:ext cx="4872355" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6524625" y="3881120"/>
+        <a:ext cx="4940935" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135890</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="723900" y="5128895"/>
+        <a:ext cx="4869815" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10534650" y="1276350"/>
+        <a:ext cx="4871720" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3">
+            <v>13208</v>
+          </cell>
+          <cell r="C3">
+            <v>27812</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>7495227</v>
+          </cell>
+          <cell r="C4">
+            <v>14810862</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>12994720</v>
+          </cell>
+          <cell r="C5">
+            <v>16038475</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3073420</v>
+          </cell>
+          <cell r="C6">
+            <v>5300289</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>838</v>
+          </cell>
+          <cell r="C7">
+            <v>2108</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>4569</v>
+          </cell>
+          <cell r="C8">
+            <v>8273</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>41852</v>
+          </cell>
+          <cell r="C9">
+            <v>75426</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>259113</v>
+          </cell>
+          <cell r="C10">
+            <v>479645</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>1012</v>
+          </cell>
+          <cell r="C11">
+            <v>2844</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>21518</v>
+          </cell>
+          <cell r="C12">
+            <v>33213</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>114242</v>
+          </cell>
+          <cell r="C13">
+            <v>246345</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>679000</v>
+          </cell>
+          <cell r="C14">
+            <v>1578361</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,7 +5363,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1342,6 +5641,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +5651,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1390,10 +5690,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5452124</v>
+        <v>3163941</v>
       </c>
       <c r="C3">
-        <v>5577668</v>
+        <v>1992135</v>
       </c>
       <c r="D3">
         <v>918</v>
@@ -1451,8 +5751,11 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>507</v>
+      </c>
       <c r="C7">
-        <v>2566</v>
+        <v>2067</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -1468,8 +5771,11 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>33849</v>
+      </c>
       <c r="C8">
-        <v>78243</v>
+        <v>42707</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -1485,9 +5791,11 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+      <c r="B9" s="1">
+        <v>140062003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>125487122</v>
       </c>
       <c r="D9" s="2">
         <v>10000</v>
@@ -1495,7 +5803,9 @@
       <c r="E9" s="2">
         <v>844</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1112974784</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -1515,8 +5825,11 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>2845</v>
+      </c>
       <c r="C11">
-        <v>17922</v>
+        <v>3039</v>
       </c>
       <c r="D11">
         <v>77</v>
@@ -1532,8 +5845,11 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>5889611</v>
+      </c>
       <c r="C12">
-        <v>13725654</v>
+        <v>4160674</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -1549,10 +5865,10 @@
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="1">
+        <v>2924445368</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2">
         <v>10000</v>
       </c>
@@ -1577,7 +5893,7 @@
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +5923,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:6">
